--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranminhquang/Desktop/download-image/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC51847-D6AA-7C43-A308-E041322F44DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A12B-E3DA-3141-AB44-CBC4C62F0769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9DC6B5A8-E838-0C40-88B6-26F921603A31}"/>
   </bookViews>
@@ -25,12 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://fossil.scene7.com/is/image/FossilPartners?wid=600&amp;hei=600&amp;layer=0&amp;src=is%7BFossilPartners/SKW2907_main%7D</t>
+    <t>https://fossil.scene7.com/is/image/FossilPartners?wid=3000&amp;hei=3000&amp;layer=0&amp;src=is%7BFossilPartners/SKW2907_main%7D</t>
+  </si>
+  <si>
+    <t>https://fossil.scene7.com/is/image/FossilPartners?wid=3000&amp;hei=3000&amp;layer=0&amp;src=is%7BFossilPartners/SKW2972_main%7D</t>
+  </si>
+  <si>
+    <t>https://fossil.scene7.com/is/image/FossilPartners?wid=3000&amp;hei=3000&amp;layer=0&amp;src=is%7BFossilPartners/SKW2973_main%7D</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -415,10 +421,14 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -432,6 +442,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{87362B22-A7DC-394C-B880-77941B21AA60}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{EEA83E5B-B2C2-9347-B754-77C67CB921C9}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{55DB7F65-E09C-0447-AAB7-95DD9E13E31D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranminhquang/Desktop/download-image/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranminhquang/Desktop/download_images_from_url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB62A12B-E3DA-3141-AB44-CBC4C62F0769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FD4A2-B75D-114E-8628-EAFE0E560763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9DC6B5A8-E838-0C40-88B6-26F921603A31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>URL</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>https://fossil.scene7.com/is/image/FossilPartners?wid=3000&amp;hei=3000&amp;layer=0&amp;src=is%7BFossilPartners/SKW2973_main%7D</t>
+  </si>
+  <si>
+    <t>https://fossil.scene7.com/is/image/FossilPartners?wid=3000&amp;hei=3000&amp;layer=0&amp;src=is%7BFossilPartners/SKW2972_3%7D</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" activeCellId="1" sqref="A3 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,7 +434,9 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
@@ -444,6 +449,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{87362B22-A7DC-394C-B880-77941B21AA60}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{EEA83E5B-B2C2-9347-B754-77C67CB921C9}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{55DB7F65-E09C-0447-AAB7-95DD9E13E31D}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{653FCF0F-BB76-0249-B602-88292D77F75E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
